--- a/data/income_statement/1digit/size/L_IS_SMALL.xlsx
+++ b/data/income_statement/1digit/size/L_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>L-Real estate activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>L-Real estate activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1145 +841,1295 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>607417.38959</v>
+        <v>795702.90539</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>795122.1174700001</v>
+        <v>998849.1227599999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1026771.17887</v>
+        <v>1278973.06887</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1058501.43198</v>
+        <v>1325793.31938</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1837897.56527</v>
+        <v>2293714.86388</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2452412.56134</v>
+        <v>2960942.20528</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1979041.0054</v>
+        <v>2724196.29191</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2352220.75552</v>
+        <v>2979323.53123</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2738280.6385</v>
+        <v>3462168.43605</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4242281.68738</v>
+        <v>5658769.0044</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5053745.291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>6717318.3187</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>8040458.126</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>549801.4981</v>
+        <v>707290.29688</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>725240.81843</v>
+        <v>889799.6284399999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>927605.66412</v>
+        <v>1131704.8612</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>978057.95811</v>
+        <v>1204871.29252</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1707507.75237</v>
+        <v>2086971.15191</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2237382.50104</v>
+        <v>2650888.25385</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1832020.30721</v>
+        <v>2454840.80497</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2170869.22085</v>
+        <v>2688160.41408</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2542162.10416</v>
+        <v>3161267.44515</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3930644.86555</v>
+        <v>5208372.89477</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4701031.091019999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6148535.26625</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>7447041.225</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>11612.15587</v>
+        <v>15723.61829</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>21555.16546</v>
+        <v>27780.87389</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>27781.33367</v>
+        <v>36630.28361</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>35446.49428</v>
+        <v>39239.60266</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>40171.15643</v>
+        <v>61675.17820999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>90550.394</v>
+        <v>102888.68662</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>41891.87387</v>
+        <v>60377.34591999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>27283.25664</v>
+        <v>29414.80944</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>40479.44834</v>
+        <v>55322.45256000001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>60379.54188</v>
+        <v>60914.02277</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>101370.60976</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>102671.93594</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>185466.873</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>46003.73562000001</v>
+        <v>72688.99021999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>48326.13358000001</v>
+        <v>81268.62043</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>71384.18107999999</v>
+        <v>110637.92406</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>44996.97959</v>
+        <v>81682.42419999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>90218.65647</v>
+        <v>145068.53376</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>124479.6663</v>
+        <v>207165.26481</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>105128.82432</v>
+        <v>208978.14102</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>154068.27803</v>
+        <v>261748.30771</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>155639.086</v>
+        <v>245578.53834</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>251257.27995</v>
+        <v>389482.08686</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>251343.59022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>466111.11651</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>407950.028</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>6504.5571</v>
+        <v>9078.477730000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>8894.39057</v>
+        <v>10191.66301</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3215.01832</v>
+        <v>6093.75265</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3373.93142</v>
+        <v>10465.62135</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>14368.95547</v>
+        <v>20389.67394</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>35174.79657999999</v>
+        <v>42630.3766</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>8372.52828</v>
+        <v>16040.63886</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>13303.72382</v>
+        <v>18823.75906</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>30613.1879</v>
+        <v>45666.2122</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>109441.52938</v>
+        <v>179728.33761</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>145577.76581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>227142.77322</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>495999.194</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3711.3561</v>
+        <v>6173.89538</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>4789.71613</v>
+        <v>5716.448000000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2987.666099999999</v>
+        <v>3988.17244</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3098.82265</v>
+        <v>8644.269609999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>12762.72734</v>
+        <v>17226.98441</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>32489.1353</v>
+        <v>36312.84243</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>7100.374299999999</v>
+        <v>13602.62089</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>10502.76531</v>
+        <v>15361.41094</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>26849.94644</v>
+        <v>40652.00193</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>97419.05262</v>
+        <v>141795.55682</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>113562.26233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>165340.09359</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>332205.713</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>2615.72199</v>
+        <v>2596.28325</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1624.20811</v>
+        <v>2101.70376</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>29.52346</v>
+        <v>1826.84381</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>114.28571</v>
+        <v>1669.18966</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1194.2683</v>
+        <v>2718.46468</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2079.55486</v>
+        <v>5367.567170000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>487.29713</v>
+        <v>1258.92459</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2392.17634</v>
+        <v>2914.61957</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3137.46469</v>
+        <v>4033.42645</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>9649.854879999999</v>
+        <v>35269.38262999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>25442.12676</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>54844.92187999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>151652.55</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>177.47901</v>
+        <v>308.2991</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2480.46633</v>
+        <v>2373.51125</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>197.82876</v>
+        <v>278.7364</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>160.82306</v>
+        <v>152.16208</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>411.95983</v>
+        <v>444.22485</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>606.1064200000001</v>
+        <v>949.967</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>784.85685</v>
+        <v>1179.09338</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>408.78217</v>
+        <v>547.72855</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>625.7767700000001</v>
+        <v>980.78382</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2372.62188</v>
+        <v>2663.39816</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>6573.376720000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>6957.75775</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>12140.931</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>600912.8324900001</v>
+        <v>786624.4276599999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>786227.7269000001</v>
+        <v>988657.45975</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1023556.16055</v>
+        <v>1272879.31622</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1055127.50056</v>
+        <v>1315327.69803</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1823528.6098</v>
+        <v>2273325.18994</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2417237.76476</v>
+        <v>2918311.82868</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1970668.47712</v>
+        <v>2708155.65305</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2338917.0317</v>
+        <v>2960499.77217</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2707667.450600001</v>
+        <v>3416502.22385</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4132840.158</v>
+        <v>5479040.66679</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4908167.52519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>6490175.54548</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7544458.932</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>450355.1855</v>
+        <v>526852.01488</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>587584.28493</v>
+        <v>676033.68569</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>739192.9848300001</v>
+        <v>831625.7977</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>800306.65142</v>
+        <v>907758.75309</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1303235.33704</v>
+        <v>1534933.88519</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1736694.95402</v>
+        <v>1924468.79461</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1444885.39151</v>
+        <v>1760975.81265</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1694661.0296</v>
+        <v>1943088.48266</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1977330.20592</v>
+        <v>2303679.25626</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2867684.97814</v>
+        <v>3546203.26112</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3396163.06192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4164229.91537</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4915893.544</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>52038.07157</v>
+        <v>53310.58742</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>38905.51386</v>
+        <v>41315.91178</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>62451.06854</v>
+        <v>60847.15027000001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>65577.8731</v>
+        <v>71423.18536000002</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>85472.08422</v>
+        <v>107584.66618</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>104209.98034</v>
+        <v>102771.10502</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>97886.30306000001</v>
+        <v>128979.53141</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>140557.69637</v>
+        <v>156703.31343</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>157173.85435</v>
+        <v>205786.54411</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>291657.98716</v>
+        <v>328202.21289</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>284674.72754</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>332455.13496</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>426724.387</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>145480.5371</v>
+        <v>158977.4079</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>197315.80074</v>
+        <v>212947.98479</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>235166.41371</v>
+        <v>266608.47845</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>252708.97669</v>
+        <v>282794.46566</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>515985.04471</v>
+        <v>571126.96435</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>654743.2072300001</v>
+        <v>710545.70935</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>368913.26596</v>
+        <v>440884.13784</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>510957.75339</v>
+        <v>568805.67237</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>624135.8716800001</v>
+        <v>686890.8430200001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>562691.25835</v>
+        <v>713658.01596</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>772319.58852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>944643.0220999999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1452380.347</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>232724.75825</v>
+        <v>294614.98502</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>344798.34494</v>
+        <v>414413.95073</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>429000.7957</v>
+        <v>490465.45972</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>462650.70076</v>
+        <v>532327.97593</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>678713.32329</v>
+        <v>832834.8944199999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>958336.3535799999</v>
+        <v>1087783.02347</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>910497.2970599999</v>
+        <v>1108678.46765</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>975944.0740599999</v>
+        <v>1145207.59911</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1062544.22266</v>
+        <v>1271835.96131</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1937318.41936</v>
+        <v>2402511.73552</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2284527.62221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2802877.69295</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2928250.561</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>20111.81858</v>
+        <v>19949.03454</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>6564.62539</v>
+        <v>7355.83839</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>12574.70688</v>
+        <v>13704.70926</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>19369.10087</v>
+        <v>21213.12614</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>23064.88482</v>
+        <v>23387.36024</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>19405.41287</v>
+        <v>23368.95677</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>67588.52543000001</v>
+        <v>82433.67574999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>67201.50578000001</v>
+        <v>72371.89775</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>133476.25723</v>
+        <v>139165.90782</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>76017.31327</v>
+        <v>101831.29675</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>54641.12365</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>84254.06536000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>108538.249</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>150557.64699</v>
+        <v>259772.41278</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>198643.44197</v>
+        <v>312623.77406</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>284363.1757200001</v>
+        <v>441253.51852</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>254820.84914</v>
+        <v>407568.94494</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>520293.27276</v>
+        <v>738391.30475</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>680542.81074</v>
+        <v>993843.0340700001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>525783.0856100001</v>
+        <v>947179.8404</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>644256.0021</v>
+        <v>1017411.28951</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>730337.24468</v>
+        <v>1112822.96759</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1265155.17986</v>
+        <v>1932837.40567</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1512004.46327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2325945.63011</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2628565.388</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>136790.94165</v>
+        <v>240453.33811</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>180618.47366</v>
+        <v>298580.91374</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>262776.83322</v>
+        <v>378698.8440099999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>235331.95762</v>
+        <v>366396.42488</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>446167.1444099999</v>
+        <v>611840.0205300001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>581544.98888</v>
+        <v>796585.61756</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>443676.52986</v>
+        <v>749976.07771</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>560587.01732</v>
+        <v>789667.2548400001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>660757.0510900001</v>
+        <v>930959.1857099999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1007565.44281</v>
+        <v>1363499.53378</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1153341.38064</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1571747.56557</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1702622.394</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>446.86375</v>
+        <v>0.77068</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>0.08347</v>
+        <v>0.07435</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>14.21872</v>
+        <v>254.74178</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3.06944</v>
+        <v>3383.54898</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>69.91611</v>
+        <v>2827.35424</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>330.78223</v>
+        <v>48.98638</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>368.96413</v>
+        <v>226.17358</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>36.71259</v>
+        <v>448.83204</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>108.63518</v>
+        <v>5682.17461</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>82.07425000000001</v>
+        <v>494.92065</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>130.36325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>642.41917</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1175.315</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>12601.40744</v>
+        <v>18047.79023</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>21051.43011</v>
+        <v>29094.83698</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>24539.66811</v>
+        <v>32504.55609</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>33740.782</v>
+        <v>43466.41681</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>44535.78113</v>
+        <v>47254.01146</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>66788.07073000001</v>
+        <v>78237.58843</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>48383.05785</v>
+        <v>81774.45856999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>66506.45851</v>
+        <v>71496.52172</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>70789.76101</v>
+        <v>93100.12689</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>116697.32318</v>
+        <v>137998.71758</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>131207.04746</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>173518.60695</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>212931.291</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>123742.67046</v>
+        <v>222404.7772</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>159566.96008</v>
+        <v>269486.00241</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>238222.94639</v>
+        <v>345939.54614</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>201588.10618</v>
+        <v>319546.45909</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>401561.4471699999</v>
+        <v>561758.65483</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>514426.13592</v>
+        <v>718299.04275</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>394924.50788</v>
+        <v>667975.44556</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>494043.84622</v>
+        <v>717721.9010800001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>589858.6549</v>
+        <v>832176.8842099999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>890786.0453800001</v>
+        <v>1225005.89555</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1022003.96993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1397586.53945</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1488515.788</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>13766.70534</v>
+        <v>19319.07467</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>18024.96831</v>
+        <v>14042.86032</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>21586.3425</v>
+        <v>62554.67450999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>19488.89152</v>
+        <v>41172.52006</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>74126.12835</v>
+        <v>126551.28422</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>98997.82185999998</v>
+        <v>197257.41651</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>82106.55575</v>
+        <v>197203.76269</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>83668.98478</v>
+        <v>227744.03467</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>69580.19359000001</v>
+        <v>181863.78188</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>257589.73705</v>
+        <v>569337.87189</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>358663.08263</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>754198.0645400001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>925942.9939999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>51209.45754</v>
+        <v>142984.60669</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>34987.37768</v>
+        <v>157952.93398</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>68540.80743</v>
+        <v>184251.08376</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>46435.68082</v>
+        <v>199165.68505</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>132437.84371</v>
+        <v>364567.70769</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>149519.5509</v>
+        <v>389824.4433</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>145165.60425</v>
+        <v>629283.7723</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>132329.05571</v>
+        <v>456149.5975499999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>155348.34537</v>
+        <v>603272.7773600001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>698783.48823</v>
+        <v>2266623.27249</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>476359.07776</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1468731.11868</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2045793.354</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>224.67406</v>
+        <v>3845.5218</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>239.09485</v>
+        <v>4111.72632</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>224.28956</v>
+        <v>4266.78049</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>431.40377</v>
+        <v>8653.882079999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>2189.52447</v>
+        <v>30168.9744</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1726.15975</v>
+        <v>27482.77664</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1193.47415</v>
+        <v>43455.67909000001</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>3541.38108</v>
+        <v>27146.0688</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>7182.918279999999</v>
+        <v>55425.58709</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>29599.32004</v>
+        <v>17572.85907</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>19672.44328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>34356.43488</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>41384.761</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>4.3866</v>
+        <v>15726.03</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>3289.28466</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>80.96586000000001</v>
+        <v>2680.20234</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>715.36089</v>
+        <v>5385.33716</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>59.74175</v>
+        <v>20318.76618</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>6924.524840000001</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>175.01616</v>
+        <v>13043.38894</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>1919.49827</v>
+        <v>38306.79076</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>349.0605</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>60794.80011</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>28678.601</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>3541.02397</v>
+        <v>15105.8264</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>4124.30344</v>
+        <v>14271.47783</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>5575.1304</v>
+        <v>20027.6897</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>7408.139929999999</v>
+        <v>27684.31596</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>13239.07876</v>
+        <v>44317.95614</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>20517.07163</v>
+        <v>46052.87501</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>15977.02193</v>
+        <v>52498.62582</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>19716.86314</v>
+        <v>69296.49665</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>26707.92435</v>
+        <v>95570.91785999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>79793.82137000001</v>
+        <v>320589.54936</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>97562.75284999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>234511.2279</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>220117.982</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>271.36941</v>
+        <v>354.82889</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>215.64775</v>
+        <v>411.91826</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>531.8313200000001</v>
+        <v>178.24019</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>471.16213</v>
+        <v>479.05785</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>569.8019499999999</v>
+        <v>386.37961</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>445.84521</v>
+        <v>525.4732700000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>608.6876699999999</v>
+        <v>418.67135</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>321.1893</v>
+        <v>325.2833000000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>453.89546</v>
+        <v>2282.30817</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>173.5336</v>
+        <v>7502.287969999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1012.92385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>3259.61746</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>3834.038</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1771.26163</v>
+        <v>2243.29811</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>191.65697</v>
+        <v>423.49943</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1477.61785</v>
+        <v>663.26369</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>401.69118</v>
+        <v>2290.46366</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2578.23284</v>
+        <v>2666.84626</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>3861.78377</v>
+        <v>3482.32717</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2082.69742</v>
+        <v>3828.11122</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2174.80537</v>
+        <v>4185.554819999999</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3722.01638</v>
+        <v>3412.14376</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>5351.501679999999</v>
+        <v>53097.73175</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>12629.14804</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>66461.74666</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>61352.738</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>832.93978</v>
+        <v>390.29104</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>383.25343</v>
+        <v>381.48224</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>15612.40146</v>
+        <v>279.5068</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>746.79301</v>
+        <v>2779.48614</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>24789.41776</v>
+        <v>57713.34626</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>9498.349610000001</v>
+        <v>3962.29278</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>30588.71291</v>
+        <v>95346.39741000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1337.9026</v>
+        <v>1223.83095</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>24778.49869</v>
+        <v>4589.635429999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>46579.21614</v>
+        <v>16697.03225</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>12854.07755</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>40894.41237999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>47152.265</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>9538.325929999999</v>
+        <v>69478.65242</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>9769.24496</v>
+        <v>76337.30816</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>19792.9675</v>
+        <v>97707.82853999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>13360.67115</v>
+        <v>75620.35739</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>33367.85349</v>
+        <v>136373.65644</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>40389.46720000001</v>
+        <v>202793.64051</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>48006.31370000001</v>
+        <v>307149.57763</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>45335.39843</v>
+        <v>289211.91367</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>43940.09046</v>
+        <v>361721.08436</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>362506.13538</v>
+        <v>1630791.35754</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>103612.40467</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>745220.87816</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1405492.571</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0</v>
+        <v>6.834020000000001</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>71.21597</v>
+        <v>13.06736</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>380.28</v>
+        <v>0.91484</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>68.33799999999999</v>
+        <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>22.02532</v>
+        <v>109.2077</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>16.48563</v>
+        <v>141.88826</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>4.5167</v>
+        <v>54.52053</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>1612.20044</v>
+        <v>1187.79737</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>3095.65068</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>3025.23535</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>442.607</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>40.65352000000001</v>
@@ -2093,313 +2144,353 @@
         <v>15.35928</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>98.22623</v>
+        <v>41.75832</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>50.91023999999999</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>49.07841000000001</v>
+        <v>107.98978</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>48.74745</v>
+        <v>26.34126</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>3.67882</v>
+        <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>1168.3152</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>8.949059999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>8.980699999999999</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>9.785</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>34989.20924</v>
+        <v>51518.70049</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>20033.8408</v>
+        <v>46263.54286</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>25216.38237</v>
+        <v>61066.73598999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>23600.46037</v>
+        <v>78353.47803</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>55144.46235</v>
+        <v>90217.67307999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>72246.26459999999</v>
+        <v>100088.81052</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>46577.85099</v>
+        <v>106050.74612</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>59836.28270999999</v>
+        <v>57667.69499999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>48379.79007</v>
+        <v>67173.19121999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>170079.94611</v>
+        <v>179709.55122</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>225561.66728</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>280197.78508</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>237328.006</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>40009.46754999999</v>
+        <v>88079.73924999998</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>13475.08638</v>
+        <v>75036.81103</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>47349.35531</v>
+        <v>153770.18312</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>18669.80395</v>
+        <v>88273.39973999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>99625.01082</v>
+        <v>304827.17914</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>72685.73992000001</v>
+        <v>255275.63686</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>88409.33393000001</v>
+        <v>516870.3383300001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>75952.99728999998</v>
+        <v>488423.36734</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>122876.11194</v>
+        <v>547114.20505</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>669428.0179099999</v>
+        <v>2467984.00066</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>283066.92316</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1389569.6051</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2748965.929</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>831.6708699999999</v>
+        <v>2147.40042</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1555.43265</v>
+        <v>3487.34676</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1729.86363</v>
+        <v>1278.34493</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>827.8385700000001</v>
+        <v>1075.26772</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>853.91071</v>
+        <v>1111.98225</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1000.01063</v>
+        <v>2581.87759</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1060.06447</v>
+        <v>1011.903</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>6415.64232</v>
+        <v>6353.503580000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1154.62425</v>
+        <v>1272.18492</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>881.49711</v>
+        <v>723.4278300000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2272.5917</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>13645.46761</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3230.898</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>6614.47515</v>
+        <v>7036.56645</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1050.14575</v>
+        <v>2487.49441</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>4545.58774</v>
+        <v>2169.57365</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1366.85014</v>
+        <v>4562.332359999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4395.84566</v>
+        <v>6312.09159</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>11134.70113</v>
+        <v>13758.62273</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>4307.98646</v>
+        <v>13590.93564</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>4014.600939999999</v>
+        <v>11637.03927</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>8241.21047</v>
+        <v>12638.82908</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>21822.45722</v>
+        <v>39819.72682</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>30837.24799</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>41773.29047</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>40010.912</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>77.59375999999999</v>
+        <v>29.13706</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>16.91962</v>
+        <v>27.13401</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>17308.94402</v>
+        <v>1370.33201</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>41.46722</v>
+        <v>211.01465</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>29222.2942</v>
+        <v>444.2905</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>8180.176399999999</v>
+        <v>3734.24601</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>21659.26905</v>
+        <v>987.50797</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>148.68531</v>
+        <v>194.26845</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>30182.39678</v>
+        <v>7114.00591</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>36819.87366</v>
+        <v>2697.95936</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>6173.24629</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>18333.10602</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3552.033</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>11038.14986</v>
+        <v>56676.72354</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>9524.50467</v>
+        <v>64303.89292</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>21406.52951</v>
+        <v>145147.55215</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>9908.90756</v>
+        <v>53422.30948999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>42897.91706</v>
+        <v>268079.43282</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>40019.93453</v>
+        <v>215840.36457</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>56375.42724</v>
+        <v>471486.9138800001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>50789.83498</v>
+        <v>439834.07152</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>51424.66426</v>
+        <v>497369.95001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>495178.7404</v>
+        <v>2306947.92611</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>150180.53173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1153316.35257</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2604885.334</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0</v>
+        <v>154.51046</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>0</v>
+        <v>168.90539</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>0</v>
+        <v>136.30462</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>0.02405</v>
+        <v>9.61872</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>303.45835</v>
+        <v>1903.6746</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>0.00062</v>
+        <v>3640.89743</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>19.0002</v>
+        <v>2774.82931</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>5.60338</v>
+        <v>580.38377</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>608.77746</v>
+        <v>380.74847</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>33.133</v>
+        <v>3121.51832</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>1890.9802</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>2408.51789</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>1785.565</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>0.4603</v>
+        <v>0.53213</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>0.35182</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>5.009270000000001</v>
+        <v>18.19095</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0</v>
@@ -2417,601 +2508,679 @@
         <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>34.01049</v>
+        <v>34.01035</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>21447.11761</v>
+        <v>22034.86919</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1327.73187</v>
+        <v>4561.685719999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2353.42114</v>
+        <v>3649.88481</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>6524.71641</v>
+        <v>28992.8568</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>21951.58484</v>
+        <v>26975.70738</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>12297.58191</v>
+        <v>15666.29383</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4987.58645</v>
+        <v>27018.24847</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>14578.63036</v>
+        <v>29824.10075000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>31230.42823</v>
+        <v>28304.47631</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>114692.31651</v>
+        <v>114673.44222</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>91712.32524999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>160092.87054</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>95501.18700000001</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>9275.25181</v>
+        <v>57273.45244</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>9601.43478</v>
+        <v>57962.87581</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>11066.23265</v>
+        <v>54146.71606</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>12809.64854</v>
+        <v>44528.31823</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>31572.42769</v>
+        <v>124626.45136</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>42212.75912</v>
+        <v>146114.16032</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>50449.87493999999</v>
+        <v>140157.48123</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>60369.01736</v>
+        <v>222789.41307</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>66791.91355</v>
+        <v>210091.28836</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>211641.10798</v>
+        <v>1435281.22455</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>188115.15062</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1051740.99013</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1261918.015</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>7545.976619999999</v>
+        <v>35585.47266</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>9261.09107</v>
+        <v>48246.2415</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>10386.76311</v>
+        <v>47156.12393</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>10577.7594</v>
+        <v>39484.8434</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>28594.91785</v>
+        <v>98027.7175</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>38392.27373</v>
+        <v>122177.71587</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>47188.35546</v>
+        <v>116817.96524</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>57068.13175</v>
+        <v>153714.36815</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>64168.57685</v>
+        <v>174468.81034</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>194995.22211</v>
+        <v>1085237.90854</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>180792.48178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>785581.24499</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>910795.459</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1729.27519</v>
+        <v>21687.97978</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>340.34371</v>
+        <v>9716.634310000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>679.4695400000001</v>
+        <v>6990.59213</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>2231.88914</v>
+        <v>5043.47483</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2977.50984</v>
+        <v>26598.73386</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>3820.48539</v>
+        <v>23936.44445</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>3261.51948</v>
+        <v>23339.51599</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>3300.88561</v>
+        <v>69075.04492</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2623.3367</v>
+        <v>35622.47802</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>16645.88587</v>
+        <v>350043.31601</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>7322.66884</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>266159.74514</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>351122.556</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>15691.44352</v>
+        <v>16950.48967</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>29935.82483</v>
+        <v>38996.10746</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>31711.56197</v>
+        <v>38888.85909</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>34445.11985</v>
+        <v>107536.48714</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>75366.53354999999</v>
+        <v>61665.36141</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>133618.87372</v>
+        <v>185692.06263</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>88412.95113</v>
+        <v>169459.71543</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>79676.02584</v>
+        <v>-27319.14819</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>35260.51347</v>
+        <v>27931.06583</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>75304.09939000002</v>
+        <v>-1067304.08083</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>363840.08661</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-218381.41201</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1039147.596</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>9004.35968</v>
+        <v>25167.46407</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>12110.99514</v>
+        <v>19895.8654</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>13148.25142</v>
+        <v>11494.36996</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>10657.31986</v>
+        <v>48948.97473</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>31965.84418</v>
+        <v>37581.94027000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>68513.57130000001</v>
+        <v>106201.96656</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>29776.73981</v>
+        <v>57348.22749</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>30680.09121</v>
+        <v>75272.15600999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>36659.86572</v>
+        <v>60276.09403</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>72689.77806999999</v>
+        <v>184386.75002</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>71410.77397999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>131984.0617</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>337282.107</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>94.7563</v>
+        <v>14064.73983</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>68.27673</v>
+        <v>260.69542</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>737.74896</v>
+        <v>745.61645</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>119.33405</v>
+        <v>887.4753499999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>553.53758</v>
+        <v>551.20151</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>735.8200800000001</v>
+        <v>1423.5006</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>533.59837</v>
+        <v>1100.44725</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>627.24897</v>
+        <v>1325.28844</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>2043.81066</v>
+        <v>2175.08209</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>5568.344990000001</v>
+        <v>1082.98357</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>814.4366000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1486.33212</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3812.928</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>8909.60338</v>
+        <v>11102.72424</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>12042.71841</v>
+        <v>19635.16998</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>12410.50246</v>
+        <v>10748.75351</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>10537.98581</v>
+        <v>48061.49938</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>31412.3066</v>
+        <v>37030.73876</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>67777.75122000001</v>
+        <v>104778.46596</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>29243.14144</v>
+        <v>56247.78024</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>30052.84224</v>
+        <v>73946.86756999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>34616.05506</v>
+        <v>58101.01194</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>67121.43308</v>
+        <v>183303.76645</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>70596.33738</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>130497.72958</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>333469.179</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>9948.39122</v>
+        <v>9448.36699</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>10359.28393</v>
+        <v>11246.49196</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>64027.13655</v>
+        <v>93660.38072</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>14856.36571</v>
+        <v>27418.84841</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>42427.66644000001</v>
+        <v>29406.1073</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>87862.81223</v>
+        <v>155108.71822</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>33905.89607</v>
+        <v>102441.10806</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>87102.79375</v>
+        <v>152215.96577</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>31315.40491</v>
+        <v>165363.27355</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>142854.71096</v>
+        <v>265383.70469</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>102406.53786</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>196319.42261</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>268217.783</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>502.0909</v>
+        <v>504.24625</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>8.43811</v>
+        <v>154.10686</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>265.07268</v>
+        <v>389.53268</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>21.39409</v>
+        <v>2.09568</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1079.89722</v>
+        <v>7840.07011</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1632.38549</v>
+        <v>273.61232</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>30.97849</v>
+        <v>678.3831300000001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>355.16458</v>
+        <v>186.31637</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>226.0453</v>
+        <v>3038.47667</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2476.05054</v>
+        <v>2752.75683</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>166.50193</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>443.6276800000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>5006.994</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1310.01457</v>
+        <v>64.11414000000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>706.35414</v>
+        <v>1788.52998</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1102.96004</v>
+        <v>672.60267</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1649.94795</v>
+        <v>1400.54932</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2083.54898</v>
+        <v>1019.10238</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1277.52473</v>
+        <v>2956.76574</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1312.11685</v>
+        <v>2641.67098</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3069.879039999999</v>
+        <v>28266.48327</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3332.597</v>
+        <v>1674.39575</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>4525.89041</v>
+        <v>41534.86641</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>2992.00575</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>2934.87557</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>22588.879</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>8136.28575</v>
+        <v>8880.006599999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>9644.491679999999</v>
+        <v>9303.855119999998</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>62659.10383</v>
+        <v>92598.24537</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>13185.02367</v>
+        <v>26016.20341</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>39264.22024</v>
+        <v>20546.93481</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>84952.90200999999</v>
+        <v>151878.34016</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>32562.80073</v>
+        <v>99121.05395</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>83677.75013</v>
+        <v>123763.16613</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>27756.76261</v>
+        <v>160650.40113</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>135852.77001</v>
+        <v>221096.08145</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>99248.03018</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>192940.91936</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>240621.91</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>14747.41198</v>
+        <v>32669.58675</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>31687.53604</v>
+        <v>47645.48089999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-19167.32316</v>
+        <v>-43277.15166999998</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>30246.074</v>
+        <v>129066.61346</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>64904.71129</v>
+        <v>69841.19438</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>114269.63279</v>
+        <v>136785.31097</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>84283.79487</v>
+        <v>124366.83486</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>23253.3233</v>
+        <v>-104262.95795</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>40604.97428</v>
+        <v>-77156.11369000003</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>5139.1665</v>
+        <v>-1148301.0355</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>332844.32273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-282716.77292</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-970083.272</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>9798.33023</v>
+        <v>18948.24263</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>12436.24472</v>
+        <v>19983.86499</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>14987.63223</v>
+        <v>27089.54162</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>15381.48229</v>
+        <v>30794.85643</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>34099.32784000001</v>
+        <v>52584.06653</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>47744.88058</v>
+        <v>67152.03064</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>38606.87858</v>
+        <v>79715.42582999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>41183.4945</v>
+        <v>78027.23435000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>40756.08317000001</v>
+        <v>73460.28748</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>98025.56673000001</v>
+        <v>140942.63244</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>124434.26275</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>165659.05851</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>204434.065</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4949.08175</v>
+        <v>13721.34412</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>19251.29132</v>
+        <v>27661.61591</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-34154.95539</v>
+        <v>-70366.69329000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>14864.59171</v>
+        <v>98271.75703000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>30805.38345</v>
+        <v>17257.12785</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>66524.75221000001</v>
+        <v>69633.28032999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>45676.91628999999</v>
+        <v>44651.40903</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-17930.1712</v>
+        <v>-182290.1923</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-151.1088899999987</v>
+        <v>-150616.40117</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-92886.40022999998</v>
+        <v>-1289243.66794</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>208410.05998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-448375.83143</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1174517.337</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>635</v>
+        <v>415</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>765</v>
+        <v>493</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>916</v>
+        <v>606</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1053</v>
+        <v>672</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1536</v>
+        <v>814</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1922</v>
+        <v>1061</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1632</v>
+        <v>995</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1850</v>
+        <v>1030</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2098</v>
+        <v>1155</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1676</v>
+        <v>952</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>988</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>